--- a/data/RRB_NTPC_CBT_2/subjects.xlsx
+++ b/data/RRB_NTPC_CBT_2/subjects.xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Subject1</t>
+          <t>Sub1</t>
         </is>
       </c>
       <c r="B2" t="n">
